--- a/OptLignin1.0/data/Baskaran_2019.xlsx
+++ b/OptLignin1.0/data/Baskaran_2019.xlsx
@@ -1,46 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arch9809\Box\Stockholm Unviersity\Notebook\postdoc_SU\Scripts\matlab\Yop\litter_decompose\two-poop-one-control-vo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Stockholm University\postdoc_SU\OptLignin\OptLignin1.0\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D78B02-1AD2-416B-B50F-71095D72425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="660" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{07D76807-64EB-4D46-BB10-FABAFAC6C3E7}"/>
+    <workbookView xWindow="28680" yWindow="660" windowWidth="29040" windowHeight="17520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Arjun Chakrawal</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{11C01554-B530-4D90-8609-2D445CD4CCFF}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{45490E9B-F982-42D3-9222-6902935D6ABD}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{B34A3ED2-B3EA-4F0D-9231-7A76FAA48BA0}">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,9 +222,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -324,11 +315,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -874,6 +865,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -881,7 +873,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1288,6 +1279,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1295,7 +1287,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1723,6 +1714,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1730,7 +1722,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3846,52 +3837,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCED3581-93F5-4B67-87EC-7711414EB116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3944,7 +3935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +3958,7 @@
         <v>65.1766557934274</v>
       </c>
       <c r="H4">
-        <f>(E4+F4)*0.001</f>
+        <f t="shared" ref="H4:H11" si="0">(E4+F4)*0.001</f>
         <v>0.12453669881717211</v>
       </c>
       <c r="I4" s="2">
@@ -3979,7 +3970,7 @@
         <v>0.31656487536097194</v>
       </c>
       <c r="K4">
-        <f>G4*0.001</f>
+        <f t="shared" ref="K4:K11" si="1">G4*0.001</f>
         <v>6.5176655793427407E-2</v>
       </c>
       <c r="L4">
@@ -3999,7 +3990,7 @@
         <v>6.5176655793427407E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,19 +4013,19 @@
         <v>56.2826202390738</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H7" si="0">(E5+F5)*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.10963105684967621</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I11" si="1">C5*0.5</f>
+        <f t="shared" ref="I5:I11" si="2">C5*0.5</f>
         <v>0.47763495646208848</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J11" si="2">D5*0.6</f>
+        <f t="shared" ref="J5:J11" si="3">D5*0.6</f>
         <v>0.28282105752315179</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K7" si="3">G5*0.001</f>
+        <f t="shared" si="1"/>
         <v>5.6282620239073801E-2</v>
       </c>
       <c r="L5">
@@ -4062,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4089,15 +4080,15 @@
         <v>9.4515184772540201E-2</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45388549584536553</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24328177382414398</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.45388549584536553</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24328177382414398</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
         <v>4.9992064233609398E-2</v>
       </c>
       <c r="L6">
@@ -4121,11 +4112,11 @@
         <v>0.60168300403352226</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q7" si="8">P6/MAX($P$5:$P$7)</f>
+        <f>P6/MAX($P$5:$P$7)</f>
         <v>0.77586284223303548</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,15 +4143,15 @@
         <v>7.0889404094311201E-2</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.441225202199577</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18382348059879841</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.441225202199577</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18382348059879841</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
         <v>3.3623232863639697E-2</v>
       </c>
       <c r="L7">
@@ -4184,11 +4175,11 @@
         <v>0.69992286422860828</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="8"/>
+        <f>P7/MAX($P$5:$P$7)</f>
         <v>0.90254193511179814</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -4211,7 +4202,7 @@
         <v>65.176655793427386</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H10" si="9">(E8+F8)*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.12453669881717211</v>
       </c>
       <c r="I8" s="2">
@@ -4219,11 +4210,11 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31656487536097194</v>
       </c>
       <c r="K8">
-        <f>G8*0.001</f>
+        <f t="shared" si="1"/>
         <v>6.5176655793427393E-2</v>
       </c>
       <c r="L8">
@@ -4242,7 +4233,7 @@
         <v>6.5176655793427393E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -4265,19 +4256,19 @@
         <v>65.224450061196194</v>
       </c>
       <c r="H9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0.116414973815626</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45112634292605752</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30355163142695879</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.45112634292605752</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.30355163142695879</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K11" si="10">G9*0.001</f>
         <v>6.522445006119619E-2</v>
       </c>
       <c r="L9">
@@ -4305,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4328,19 +4319,19 @@
         <v>63.972579094657497</v>
       </c>
       <c r="H10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0.1165959440349454</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40436319580442798</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2985942841968996</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.40436319580442798</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2985942841968996</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="10"/>
         <v>6.3972579094657506E-2</v>
       </c>
       <c r="L10">
@@ -4364,11 +4355,11 @@
         <v>-6.2995754249731955E-3</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q11" si="11">P10/MAX($P$9:$P$11)</f>
+        <f>P10/MAX($P$9:$P$11)</f>
         <v>-1.535524603502216E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -4391,19 +4382,19 @@
         <v>63.709722937318901</v>
       </c>
       <c r="H11">
-        <f>(E11+F11)*0.001</f>
+        <f t="shared" si="0"/>
         <v>0.110483302646935</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28914124650092349</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2902877817240348</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.28914124650092349</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2902877817240348</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="10"/>
         <v>6.3709722937318899E-2</v>
       </c>
       <c r="L11">
@@ -4427,11 +4418,11 @@
         <v>0.13103520865081131</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="11"/>
+        <f>P11/MAX($P$9:$P$11)</f>
         <v>0.31939896458851164</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -4448,7 +4439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -4468,7 +4459,7 @@
         <v>3.3623232863639697E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -4485,7 +4476,7 @@
         <v>6.3709722937318899E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
@@ -4502,7 +4493,7 @@
         <v>0.69992286422860828</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -4516,41 +4507,41 @@
         <v>0.13103520865081131</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:G22" si="12">E19/MAX(E$19:E$20)</f>
+        <f t="shared" ref="E21:G22" si="8">E19/MAX(E$19:E$20)</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.52901953533431367</v>
       </c>
       <c r="F22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-1.0469924167281647E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.1872137850436226</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
@@ -4558,7 +4549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4569,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>1</v>
       </c>
@@ -4602,7 +4593,7 @@
         <v>0.52901953533431367</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -4613,7 +4604,7 @@
         <v>-1.0469924167281647E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -4635,41 +4626,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B185C1-875C-4D3D-83D0-C69504F05B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -4728,7 +4719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4771,32 +4762,32 @@
       <c r="N5">
         <v>19.079000000000001</v>
       </c>
-      <c r="O5" s="8">
-        <f>I5*0.001/($D$5*0.01*$F$5)</f>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:T5" si="0">I5*0.001/($D$5*0.01*$F$5)</f>
         <v>0.1883181818181818</v>
       </c>
-      <c r="P5" s="8">
-        <f t="shared" ref="P5:T5" si="0">J5*0.001/($D$5*0.01*$F$5)</f>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
         <v>5.3393280632411062E-2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" si="0"/>
         <v>0.4743083003952569</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" si="0"/>
         <v>0.11857707509881422</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f t="shared" si="0"/>
         <v>0.12879446640316206</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="0"/>
         <v>3.7705533596837947E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4818,14 +4809,14 @@
       <c r="N6">
         <v>17.007000000000001</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4847,14 +4838,14 @@
       <c r="N7">
         <v>19.683</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4876,14 +4867,14 @@
       <c r="N8">
         <v>16.100999999999999</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4905,14 +4896,14 @@
       <c r="N9">
         <v>19.079000000000001</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4934,14 +4925,14 @@
       <c r="N10">
         <v>20.891999999999999</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4963,14 +4954,14 @@
       <c r="N11">
         <v>20.806000000000001</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4992,18 +4983,18 @@
       <c r="N12">
         <v>24.475000000000001</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C13">
@@ -5040,36 +5031,36 @@
       <c r="N13">
         <v>15.885</v>
       </c>
-      <c r="O13" s="8">
-        <f>I13*0.001/($D$13*0.01*$F$13)</f>
+      <c r="O13" s="7">
+        <f t="shared" ref="O13:T13" si="1">I13*0.001/($D$13*0.01*$F$13)</f>
         <v>0.25739057239057245</v>
       </c>
-      <c r="P13" s="8">
-        <f t="shared" ref="P13:T13" si="1">J13*0.001/($D$13*0.01*$F$13)</f>
+      <c r="P13" s="7">
+        <f t="shared" si="1"/>
         <v>5.890572390572392E-2</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <f t="shared" si="1"/>
         <v>0.32361608932375496</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <f t="shared" si="1"/>
         <v>9.5699394909147834E-2</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <f t="shared" si="1"/>
         <v>0.21945001950648962</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <f t="shared" si="1"/>
         <v>5.3484848484848496E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C14">
@@ -5096,18 +5087,18 @@
       <c r="N14">
         <v>12.561</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C15">
@@ -5134,18 +5125,18 @@
       <c r="N15">
         <v>15.237</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C16">
@@ -5172,18 +5163,18 @@
       <c r="N16">
         <v>11.007</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C17">
@@ -5211,11 +5202,11 @@
         <v>15.885</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C18">
@@ -5243,11 +5234,11 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C19">
@@ -5275,11 +5266,11 @@
         <v>16.402999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C20">
